--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N2">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O2">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P2">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q2">
-        <v>3394.392962465103</v>
+        <v>2539.03897147512</v>
       </c>
       <c r="R2">
-        <v>30549.53666218592</v>
+        <v>22851.35074327608</v>
       </c>
       <c r="S2">
-        <v>0.010102348901444</v>
+        <v>0.006673721751360532</v>
       </c>
       <c r="T2">
-        <v>0.01064571321554551</v>
+        <v>0.006765500847759956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P3">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q3">
-        <v>74.44650349353955</v>
+        <v>66.44005869003732</v>
       </c>
       <c r="R3">
-        <v>670.018531441856</v>
+        <v>597.960528210336</v>
       </c>
       <c r="S3">
-        <v>0.0002215667311065013</v>
+        <v>0.0001746339736501825</v>
       </c>
       <c r="T3">
-        <v>0.0002334839056220431</v>
+        <v>0.0001770355943499048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N4">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O4">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P4">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q4">
-        <v>36000.33403060078</v>
+        <v>42865.36002571548</v>
       </c>
       <c r="R4">
-        <v>324003.006275407</v>
+        <v>385788.2402314394</v>
       </c>
       <c r="S4">
-        <v>0.1071437334944085</v>
+        <v>0.1126691983846617</v>
       </c>
       <c r="T4">
-        <v>0.1129065597270427</v>
+        <v>0.1142186602299482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N5">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O5">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P5">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q5">
-        <v>1609.835123595637</v>
+        <v>2476.646889959341</v>
       </c>
       <c r="R5">
-        <v>9659.01074157382</v>
+        <v>14859.88133975604</v>
       </c>
       <c r="S5">
-        <v>0.004791170695967861</v>
+        <v>0.006509727659027793</v>
       </c>
       <c r="T5">
-        <v>0.003365912204748668</v>
+        <v>0.00439950097178889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H6">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I6">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J6">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N6">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O6">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P6">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q6">
-        <v>34671.67087291525</v>
+        <v>41589.25917990028</v>
       </c>
       <c r="R6">
-        <v>312045.0378562372</v>
+        <v>374303.3326191026</v>
       </c>
       <c r="S6">
-        <v>0.1031893832056058</v>
+        <v>0.1093150387725709</v>
       </c>
       <c r="T6">
-        <v>0.1087395209978235</v>
+        <v>0.1108183731720563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N7">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O7">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P7">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q7">
-        <v>9650.599666928571</v>
+        <v>8088.646329095959</v>
       </c>
       <c r="R7">
-        <v>86855.39700235713</v>
+        <v>72797.81696186363</v>
       </c>
       <c r="S7">
-        <v>0.02872199124307309</v>
+        <v>0.02126055391508558</v>
       </c>
       <c r="T7">
-        <v>0.03026683049022992</v>
+        <v>0.02155293566247863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P8">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q8">
         <v>211.6588767898542</v>
@@ -948,10 +948,10 @@
         <v>1904.929891108688</v>
       </c>
       <c r="S8">
-        <v>0.0006299364407902836</v>
+        <v>0.0005563335048301092</v>
       </c>
       <c r="T8">
-        <v>0.0006638181632903491</v>
+        <v>0.0005639843761538385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N9">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O9">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P9">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q9">
-        <v>102352.5606630776</v>
+        <v>136556.6818440533</v>
       </c>
       <c r="R9">
-        <v>921173.0459676984</v>
+        <v>1229010.13659648</v>
       </c>
       <c r="S9">
-        <v>0.3046203813785017</v>
+        <v>0.3589315911078007</v>
       </c>
       <c r="T9">
-        <v>0.3210046743982582</v>
+        <v>0.3638677299413332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J10">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N10">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O10">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P10">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q10">
-        <v>4576.922730920164</v>
+        <v>7889.883140823956</v>
       </c>
       <c r="R10">
-        <v>27461.53638552098</v>
+        <v>47339.29884494374</v>
       </c>
       <c r="S10">
-        <v>0.01362177886708977</v>
+        <v>0.02073811600537127</v>
       </c>
       <c r="T10">
-        <v>0.00956962601597789</v>
+        <v>0.01401554201613523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J11">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N11">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O11">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P11">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q11">
-        <v>98575.0380341984</v>
+        <v>132491.392363261</v>
       </c>
       <c r="R11">
-        <v>887175.3423077856</v>
+        <v>1192422.531269349</v>
       </c>
       <c r="S11">
-        <v>0.293377766866267</v>
+        <v>0.3482462053621151</v>
       </c>
       <c r="T11">
-        <v>0.3091573653162017</v>
+        <v>0.3530353954487631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N12">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O12">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P12">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q12">
-        <v>10.24471309225433</v>
+        <v>13.44510141896</v>
       </c>
       <c r="R12">
-        <v>92.20241783028899</v>
+        <v>121.00591277064</v>
       </c>
       <c r="S12">
-        <v>3.049018401746362E-05</v>
+        <v>3.533969615946124E-05</v>
       </c>
       <c r="T12">
-        <v>3.213012717198189E-05</v>
+        <v>3.582569864823511E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P13">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q13">
-        <v>0.2246890909351111</v>
+        <v>0.3518234014542222</v>
       </c>
       <c r="R13">
-        <v>2.022201818416</v>
+        <v>3.166410613088</v>
       </c>
       <c r="S13">
-        <v>6.687167973994131E-07</v>
+        <v>9.247481087533594E-07</v>
       </c>
       <c r="T13">
-        <v>7.046843577650188E-07</v>
+        <v>9.374655322511485E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H14">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I14">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J14">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N14">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O14">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P14">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q14">
-        <v>108.653623032786</v>
+        <v>226.9871078706387</v>
       </c>
       <c r="R14">
-        <v>977.882607295074</v>
+        <v>2042.883970835748</v>
       </c>
       <c r="S14">
-        <v>0.0003233735225770757</v>
+        <v>0.000596622901851172</v>
       </c>
       <c r="T14">
-        <v>0.0003407664708911623</v>
+        <v>0.0006048278454887964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H15">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I15">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J15">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N15">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O15">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P15">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q15">
-        <v>4.858688769815832</v>
+        <v>13.11471347566967</v>
       </c>
       <c r="R15">
-        <v>29.152132618895</v>
+        <v>78.68828085401799</v>
       </c>
       <c r="S15">
-        <v>1.446036734667307E-05</v>
+        <v>3.447128995211462E-05</v>
       </c>
       <c r="T15">
-        <v>1.015875451448172E-05</v>
+        <v>2.329689989915711E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H16">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I16">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J16">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N16">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O16">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P16">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q16">
-        <v>104.6435472998774</v>
+        <v>220.2297065524391</v>
       </c>
       <c r="R16">
-        <v>941.7919256988969</v>
+        <v>1982.067358971952</v>
       </c>
       <c r="S16">
-        <v>0.0003114387864922955</v>
+        <v>0.0005788614508980421</v>
       </c>
       <c r="T16">
-        <v>0.0003281898138284042</v>
+        <v>0.0005868221335400851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H17">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I17">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J17">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N17">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O17">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P17">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q17">
-        <v>1999.629853567007</v>
+        <v>141.9566454672</v>
       </c>
       <c r="R17">
-        <v>11997.77912140204</v>
+        <v>851.7398728032</v>
       </c>
       <c r="S17">
-        <v>0.005951272783633975</v>
+        <v>0.0003731250930954495</v>
       </c>
       <c r="T17">
-        <v>0.004180911716019677</v>
+        <v>0.0002521709502540713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H18">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I18">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J18">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>1.421584</v>
       </c>
       <c r="O18">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P18">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q18">
-        <v>43.856280791736</v>
+        <v>3.714636900906667</v>
       </c>
       <c r="R18">
-        <v>263.137684750416</v>
+        <v>22.28782140544</v>
       </c>
       <c r="S18">
-        <v>0.0001305245017229995</v>
+        <v>9.763715075859848E-06</v>
       </c>
       <c r="T18">
-        <v>9.169658967440169E-05</v>
+        <v>6.598659147428985E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H19">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I19">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J19">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N19">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O19">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P19">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q19">
-        <v>21207.72210583843</v>
+        <v>2396.58500100104</v>
       </c>
       <c r="R19">
-        <v>127246.3326350306</v>
+        <v>14379.51000600624</v>
       </c>
       <c r="S19">
-        <v>0.06311815116492986</v>
+        <v>0.006299289467334502</v>
       </c>
       <c r="T19">
-        <v>0.04434201343024616</v>
+        <v>0.004257279503034788</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H20">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I20">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J20">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N20">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O20">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P20">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q20">
-        <v>948.3505322037862</v>
+        <v>138.46832933846</v>
       </c>
       <c r="R20">
-        <v>3793.402128815145</v>
+        <v>553.87331735384</v>
       </c>
       <c r="S20">
-        <v>0.002822468719188916</v>
+        <v>0.0003639562494953574</v>
       </c>
       <c r="T20">
-        <v>0.001321901265513868</v>
+        <v>0.0001639828839969835</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H21">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I21">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J21">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N21">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O21">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P21">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q21">
-        <v>20425.00939554778</v>
+        <v>2325.238717078294</v>
       </c>
       <c r="R21">
-        <v>122550.0563732866</v>
+        <v>13951.43230246976</v>
       </c>
       <c r="S21">
-        <v>0.06078865161187616</v>
+        <v>0.006111759755406784</v>
       </c>
       <c r="T21">
-        <v>0.04270548418214846</v>
+        <v>0.004130540383815089</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H22">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I22">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J22">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N22">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O22">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P22">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q22">
-        <v>1.331597580871667</v>
+        <v>5.618382299319999</v>
       </c>
       <c r="R22">
-        <v>11.984378227845</v>
+        <v>50.56544069387999</v>
       </c>
       <c r="S22">
-        <v>3.963083681541384E-06</v>
+        <v>1.47676032466122E-05</v>
       </c>
       <c r="T22">
-        <v>4.176241855680456E-06</v>
+        <v>1.497069191773981E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H23">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I23">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J23">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>1.421584</v>
       </c>
       <c r="O23">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P23">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q23">
-        <v>0.02920486374222222</v>
+        <v>0.1470184797884444</v>
       </c>
       <c r="R23">
-        <v>0.26284377368</v>
+        <v>1.323166318096</v>
       </c>
       <c r="S23">
-        <v>8.691914177455625E-08</v>
+        <v>3.864298411481531E-07</v>
       </c>
       <c r="T23">
-        <v>9.159416936599825E-08</v>
+        <v>3.917441444655067E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H24">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I24">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J24">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N24">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O24">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P24">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q24">
-        <v>14.12268945753</v>
+        <v>94.85241570850732</v>
       </c>
       <c r="R24">
-        <v>127.10420511777</v>
+        <v>853.671741376566</v>
       </c>
       <c r="S24">
-        <v>4.203176765459126E-05</v>
+        <v>0.0002493142629926584</v>
       </c>
       <c r="T24">
-        <v>4.429248571381874E-05</v>
+        <v>0.000252742910249684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H25">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I25">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J25">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N25">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O25">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P25">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q25">
-        <v>0.6315275160791667</v>
+        <v>5.480321178421832</v>
       </c>
       <c r="R25">
-        <v>3.789165096475</v>
+        <v>32.88192707053099</v>
       </c>
       <c r="S25">
-        <v>1.879544112553414E-06</v>
+        <v>1.440471732169864E-05</v>
       </c>
       <c r="T25">
-        <v>1.320424770741559E-06</v>
+        <v>9.735210315176545E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H26">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I26">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J26">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N26">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O26">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P26">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q26">
-        <v>13.60146381685389</v>
+        <v>92.0286613333982</v>
       </c>
       <c r="R26">
-        <v>122.413174351685</v>
+        <v>828.2579520005839</v>
       </c>
       <c r="S26">
-        <v>4.048050257222886E-05</v>
+        <v>0.0002418921827467941</v>
       </c>
       <c r="T26">
-        <v>4.265778438354107E-05</v>
+        <v>0.0002452187592487375</v>
       </c>
     </row>
   </sheetData>
